--- a/PythonResources/Data/Consumption/Sympheny/post_1800_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1800_hea.xlsx
@@ -383,7 +383,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>35.02902282495864</v>
+        <v>35.02902282495863</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -415,7 +415,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.331594054409225</v>
+        <v>2.331594054409224</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>38.70794357327451</v>
+        <v>38.7079435732745</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -735,7 +735,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>55.48157140001794</v>
+        <v>55.48157140001793</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -823,7 +823,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>3.262261652651033</v>
+        <v>3.262261652651032</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -879,7 +879,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1.142795346735277</v>
+        <v>1.142795346735276</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -951,7 +951,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>7.347847774213384</v>
+        <v>7.347847774213383</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -959,7 +959,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>8.29294325968849</v>
+        <v>8.292943259688489</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1095,7 +1095,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.4233030161112873</v>
+        <v>0.4233030161112872</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1111,7 +1111,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>5.928328891353291</v>
+        <v>5.92832889135329</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1167,7 +1167,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>28.07084230374938</v>
+        <v>28.07084230374937</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1191,7 +1191,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.373980332588738</v>
+        <v>3.373980332588737</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>9.085172891397839</v>
+        <v>9.085172891397836</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1271,7 +1271,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>61.47370185648781</v>
+        <v>61.4737018564878</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1327,7 +1327,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>73.02392456117009</v>
+        <v>73.02392456117008</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1343,7 +1343,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>75.58184858660631</v>
+        <v>75.5818485866063</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1487,7 +1487,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>45.31376478470123</v>
+        <v>45.31376478470122</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1511,7 +1511,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>61.10970762647042</v>
+        <v>61.10970762647041</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1759,7 +1759,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>6.527659165415742</v>
+        <v>6.527659165415741</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>84.15710717783728</v>
+        <v>84.15710717783726</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2055,7 +2055,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>51.61684361319078</v>
+        <v>51.61684361319077</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2359,7 +2359,7 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>4.536212150608035</v>
+        <v>4.536212150608034</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -2463,7 +2463,7 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>37.32699283910225</v>
+        <v>37.32699283910224</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -2511,7 +2511,7 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>46.22843949636329</v>
+        <v>46.22843949636328</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>2.080904018648697</v>
+        <v>2.080904018648696</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2735,7 +2735,7 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>0.7431021334985474</v>
+        <v>0.7431021334985473</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>70.21894165014236</v>
+        <v>70.21894165014234</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3103,7 +3103,7 @@
         <v>345</v>
       </c>
       <c r="B345">
-        <v>8.081990726060054</v>
+        <v>8.081990726060052</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -3119,7 +3119,7 @@
         <v>347</v>
       </c>
       <c r="B347">
-        <v>9.243138181236304</v>
+        <v>9.243138181236302</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -3127,7 +3127,7 @@
         <v>348</v>
       </c>
       <c r="B348">
-        <v>8.09673219930472</v>
+        <v>8.096732199304718</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -3239,7 +3239,7 @@
         <v>362</v>
       </c>
       <c r="B362">
-        <v>80.04268286607065</v>
+        <v>80.04268286607063</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -3375,7 +3375,7 @@
         <v>379</v>
       </c>
       <c r="B379">
-        <v>58.41140257351541</v>
+        <v>58.4114025735154</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -3423,7 +3423,7 @@
         <v>385</v>
       </c>
       <c r="B385">
-        <v>75.19968395219192</v>
+        <v>75.1996839521919</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -3431,7 +3431,7 @@
         <v>386</v>
       </c>
       <c r="B386">
-        <v>81.86353322927359</v>
+        <v>81.86353322927357</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -3495,7 +3495,7 @@
         <v>394</v>
       </c>
       <c r="B394">
-        <v>37.61508167010635</v>
+        <v>37.61508167010634</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -3551,7 +3551,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>38.65196700489019</v>
+        <v>38.65196700489018</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -3591,7 +3591,7 @@
         <v>406</v>
       </c>
       <c r="B406">
-        <v>98.8238473076443</v>
+        <v>98.82384730764429</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -3711,7 +3711,7 @@
         <v>421</v>
       </c>
       <c r="B421">
-        <v>42.2312436000612</v>
+        <v>42.23124360006119</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -3783,7 +3783,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>97.57008940425106</v>
+        <v>97.57008940425104</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -3863,7 +3863,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>40.92443983867026</v>
+        <v>40.92443983867025</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -3999,7 +3999,7 @@
         <v>457</v>
       </c>
       <c r="B457">
-        <v>122.5142447178342</v>
+        <v>122.5142447178341</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -4279,7 +4279,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>25.13465148871296</v>
+        <v>25.13465148871295</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -4327,7 +4327,7 @@
         <v>498</v>
       </c>
       <c r="B498">
-        <v>46.57250489575171</v>
+        <v>46.5725048957517</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -4479,7 +4479,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>92.07266286104156</v>
+        <v>92.07266286104154</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -4831,7 +4831,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>59.39494897926289</v>
+        <v>59.39494897926288</v>
       </c>
     </row>
     <row r="562" spans="1:2">
@@ -4879,7 +4879,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>77.00265698203651</v>
+        <v>77.0026569820365</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -4895,7 +4895,7 @@
         <v>569</v>
       </c>
       <c r="B569">
-        <v>89.10678394978873</v>
+        <v>89.10678394978872</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -5023,7 +5023,7 @@
         <v>585</v>
       </c>
       <c r="B585">
-        <v>36.3182423240299</v>
+        <v>36.31824232402989</v>
       </c>
     </row>
     <row r="586" spans="1:2">
@@ -5207,7 +5207,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>8.173340968810795</v>
+        <v>8.173340968810793</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -5215,7 +5215,7 @@
         <v>609</v>
       </c>
       <c r="B609">
-        <v>20.6788580311136</v>
+        <v>20.67885803111359</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -5335,7 +5335,7 @@
         <v>624</v>
       </c>
       <c r="B624">
-        <v>84.09087312309981</v>
+        <v>84.0908731230998</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -5415,7 +5415,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>46.09333374754041</v>
+        <v>46.0933337475404</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>31.37618539908363</v>
+        <v>31.37618539908362</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5559,7 +5559,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>154.1946378550483</v>
+        <v>154.1946378550482</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -5807,7 +5807,7 @@
         <v>683</v>
       </c>
       <c r="B683">
-        <v>34.99590579758991</v>
+        <v>34.9959057975899</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -5815,7 +5815,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>30.21708944117801</v>
+        <v>30.217089441178</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -5823,7 +5823,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>25.42854312628256</v>
+        <v>25.42854312628255</v>
       </c>
     </row>
     <row r="686" spans="1:2">
@@ -5871,7 +5871,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>94.48756821961103</v>
+        <v>94.48756821961102</v>
       </c>
     </row>
     <row r="692" spans="1:2">
@@ -5975,7 +5975,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>9.860375095760965</v>
+        <v>9.860375095760959</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>35.6608839843125</v>
+        <v>35.66088398431249</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6031,7 +6031,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>33.56923598138648</v>
+        <v>33.56923598138647</v>
       </c>
     </row>
     <row r="712" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>73.836610551378</v>
+        <v>73.83661055137799</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6103,7 +6103,7 @@
         <v>720</v>
       </c>
       <c r="B720">
-        <v>100.2836341512165</v>
+        <v>100.2836341512164</v>
       </c>
     </row>
     <row r="721" spans="1:2">
@@ -6247,7 +6247,7 @@
         <v>738</v>
       </c>
       <c r="B738">
-        <v>16.87142563234473</v>
+        <v>16.87142563234472</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -6263,7 +6263,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>68.30020556002653</v>
+        <v>68.30020556002651</v>
       </c>
     </row>
     <row r="741" spans="1:2">
@@ -6383,7 +6383,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>31.14465927854117</v>
+        <v>31.14465927854116</v>
       </c>
     </row>
     <row r="756" spans="1:2">
@@ -6743,7 +6743,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>50.16995189531972</v>
+        <v>50.16995189531971</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -6751,7 +6751,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>51.0412520932599</v>
+        <v>51.04125209325989</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -6815,7 +6815,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>93.4961088958197</v>
+        <v>93.49610889581967</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -6895,7 +6895,7 @@
         <v>819</v>
       </c>
       <c r="B819">
-        <v>154.7760907957524</v>
+        <v>154.7760907957523</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -6919,7 +6919,7 @@
         <v>822</v>
       </c>
       <c r="B822">
-        <v>161.3942209908029</v>
+        <v>161.3942209908028</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -6943,7 +6943,7 @@
         <v>825</v>
       </c>
       <c r="B825">
-        <v>63.68521591422632</v>
+        <v>63.68521591422631</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -7143,7 +7143,7 @@
         <v>850</v>
       </c>
       <c r="B850">
-        <v>77.27814375837818</v>
+        <v>77.27814375837816</v>
       </c>
     </row>
     <row r="851" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>64.20102094227029</v>
+        <v>64.20102094227028</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7167,7 +7167,7 @@
         <v>853</v>
       </c>
       <c r="B853">
-        <v>49.52519561026476</v>
+        <v>49.52519561026475</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -7327,7 +7327,7 @@
         <v>873</v>
       </c>
       <c r="B873">
-        <v>57.55065293296704</v>
+        <v>57.55065293296703</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -7551,7 +7551,7 @@
         <v>901</v>
       </c>
       <c r="B901">
-        <v>52.39670564706862</v>
+        <v>52.39670564706861</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -7559,7 +7559,7 @@
         <v>902</v>
       </c>
       <c r="B902">
-        <v>50.80181305467358</v>
+        <v>50.80181305467357</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -7583,7 +7583,7 @@
         <v>905</v>
       </c>
       <c r="B905">
-        <v>40.59561413329223</v>
+        <v>40.59561413329222</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>87.11507317104623</v>
+        <v>87.11507317104622</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7679,7 +7679,7 @@
         <v>917</v>
       </c>
       <c r="B917">
-        <v>89.75388480315299</v>
+        <v>89.75388480315297</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -7711,7 +7711,7 @@
         <v>921</v>
       </c>
       <c r="B921">
-        <v>9.758738059553208</v>
+        <v>9.758738059553206</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>27.05066201816924</v>
+        <v>27.05066201816923</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>53.12762481749002</v>
+        <v>53.12762481749001</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>48.58502371823917</v>
+        <v>48.58502371823916</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -7839,7 +7839,7 @@
         <v>937</v>
       </c>
       <c r="B937">
-        <v>67.72666553736627</v>
+        <v>67.72666553736626</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -7863,7 +7863,7 @@
         <v>940</v>
       </c>
       <c r="B940">
-        <v>74.78909142702737</v>
+        <v>74.78909142702736</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -7895,7 +7895,7 @@
         <v>944</v>
       </c>
       <c r="B944">
-        <v>3.274394793651613</v>
+        <v>3.274394793651612</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -8031,7 +8031,7 @@
         <v>961</v>
       </c>
       <c r="B961">
-        <v>57.83581105358453</v>
+        <v>57.83581105358452</v>
       </c>
     </row>
     <row r="962" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>58.73788371058415</v>
+        <v>58.73788371058414</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>6.425758365273192</v>
+        <v>6.425758365273191</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8111,7 +8111,7 @@
         <v>971</v>
       </c>
       <c r="B971">
-        <v>5.561286722533823</v>
+        <v>5.561286722533822</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -8119,7 +8119,7 @@
         <v>972</v>
       </c>
       <c r="B972">
-        <v>5.594110678863894</v>
+        <v>5.594110678863893</v>
       </c>
     </row>
     <row r="973" spans="1:2">
@@ -8239,7 +8239,7 @@
         <v>987</v>
       </c>
       <c r="B987">
-        <v>36.09638754776326</v>
+        <v>36.09638754776325</v>
       </c>
     </row>
     <row r="988" spans="1:2">
@@ -8247,7 +8247,7 @@
         <v>988</v>
       </c>
       <c r="B988">
-        <v>36.87859414995039</v>
+        <v>36.87859414995038</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -8279,7 +8279,7 @@
         <v>992</v>
       </c>
       <c r="B992">
-        <v>0.7133905915990602</v>
+        <v>0.71339059159906</v>
       </c>
     </row>
     <row r="993" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>59.23170841072852</v>
+        <v>59.23170841072851</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8439,7 +8439,7 @@
         <v>1012</v>
       </c>
       <c r="B1012">
-        <v>77.10259420622003</v>
+        <v>77.10259420622002</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
@@ -8463,7 +8463,7 @@
         <v>1015</v>
       </c>
       <c r="B1015">
-        <v>79.06441173901908</v>
+        <v>79.06441173901906</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
@@ -8535,7 +8535,7 @@
         <v>1024</v>
       </c>
       <c r="B1024">
-        <v>20.07187860294209</v>
+        <v>20.07187860294208</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
@@ -8575,7 +8575,7 @@
         <v>1029</v>
       </c>
       <c r="B1029">
-        <v>73.11272508588448</v>
+        <v>73.11272508588446</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>6.437539821027379</v>
+        <v>6.437539821027378</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -9031,7 +9031,7 @@
         <v>1086</v>
       </c>
       <c r="B1086">
-        <v>69.38515454515083</v>
+        <v>69.38515454515081</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -9151,7 +9151,7 @@
         <v>1101</v>
       </c>
       <c r="B1101">
-        <v>46.46787853494961</v>
+        <v>46.4678785349496</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
@@ -9175,7 +9175,7 @@
         <v>1104</v>
       </c>
       <c r="B1104">
-        <v>67.65046706731432</v>
+        <v>67.65046706731431</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>76.52905418355978</v>
+        <v>76.52905418355977</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9215,7 +9215,7 @@
         <v>1109</v>
       </c>
       <c r="B1109">
-        <v>89.78700183052172</v>
+        <v>89.7870018305217</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
@@ -9231,7 +9231,7 @@
         <v>1111</v>
       </c>
       <c r="B1111">
-        <v>85.39240160579484</v>
+        <v>85.39240160579483</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
@@ -9319,7 +9319,7 @@
         <v>1122</v>
       </c>
       <c r="B1122">
-        <v>74.50627787471917</v>
+        <v>74.50627787471916</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
@@ -9423,7 +9423,7 @@
         <v>1135</v>
       </c>
       <c r="B1135">
-        <v>143.9734923106952</v>
+        <v>143.9734923106951</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -9447,7 +9447,7 @@
         <v>1138</v>
       </c>
       <c r="B1138">
-        <v>44.79913204081191</v>
+        <v>44.7991320408119</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
@@ -9503,7 +9503,7 @@
         <v>1145</v>
       </c>
       <c r="B1145">
-        <v>48.68437480034536</v>
+        <v>48.68437480034535</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
@@ -9735,7 +9735,7 @@
         <v>1174</v>
       </c>
       <c r="B1174">
-        <v>78.60546249247541</v>
+        <v>78.6054624924754</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -10023,7 +10023,7 @@
         <v>1210</v>
       </c>
       <c r="B1210">
-        <v>8.969351216918875</v>
+        <v>8.969351216918874</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -10031,7 +10031,7 @@
         <v>1211</v>
       </c>
       <c r="B1211">
-        <v>10.71625975706756</v>
+        <v>10.71625975706755</v>
       </c>
     </row>
     <row r="1212" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>17.4459914036403</v>
+        <v>17.44599140364029</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10175,7 +10175,7 @@
         <v>1229</v>
       </c>
       <c r="B1229">
-        <v>37.22529718868676</v>
+        <v>37.22529718868675</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -10255,7 +10255,7 @@
         <v>1239</v>
       </c>
       <c r="B1239">
-        <v>0.9316816240355766</v>
+        <v>0.9316816240355764</v>
       </c>
     </row>
     <row r="1240" spans="1:2">
@@ -10303,7 +10303,7 @@
         <v>1245</v>
       </c>
       <c r="B1245">
-        <v>0.8784306163108101</v>
+        <v>0.87843061631081</v>
       </c>
     </row>
     <row r="1246" spans="1:2">
@@ -10391,7 +10391,7 @@
         <v>1256</v>
       </c>
       <c r="B1256">
-        <v>0.6300675645972531</v>
+        <v>0.630067564597253</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>3.204878343281142</v>
+        <v>3.204878343281141</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10431,7 +10431,7 @@
         <v>1261</v>
       </c>
       <c r="B1261">
-        <v>3.580624721948853</v>
+        <v>3.580624721948852</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -10447,7 +10447,7 @@
         <v>1263</v>
       </c>
       <c r="B1263">
-        <v>3.421281998228679</v>
+        <v>3.421281998228678</v>
       </c>
     </row>
     <row r="1264" spans="1:2">
@@ -10551,7 +10551,7 @@
         <v>1276</v>
       </c>
       <c r="B1276">
-        <v>35.66352162366045</v>
+        <v>35.66352162366044</v>
       </c>
     </row>
     <row r="1277" spans="1:2">
@@ -10583,7 +10583,7 @@
         <v>1280</v>
       </c>
       <c r="B1280">
-        <v>0.9658097464876902</v>
+        <v>0.96580974648769</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -10623,7 +10623,7 @@
         <v>1285</v>
       </c>
       <c r="B1285">
-        <v>4.763986961855633</v>
+        <v>4.763986961855632</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -10663,7 +10663,7 @@
         <v>1290</v>
       </c>
       <c r="B1290">
-        <v>3.672883484919444</v>
+        <v>3.672883484919443</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -10671,7 +10671,7 @@
         <v>1291</v>
       </c>
       <c r="B1291">
-        <v>36.20335847687465</v>
+        <v>36.20335847687464</v>
       </c>
     </row>
     <row r="1292" spans="1:2">
@@ -10687,7 +10687,7 @@
         <v>1293</v>
       </c>
       <c r="B1293">
-        <v>7.263267472455719</v>
+        <v>7.263267472455718</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
@@ -10703,7 +10703,7 @@
         <v>1295</v>
       </c>
       <c r="B1295">
-        <v>9.676121333754576</v>
+        <v>9.676121333754574</v>
       </c>
     </row>
     <row r="1296" spans="1:2">
@@ -10791,7 +10791,7 @@
         <v>1306</v>
       </c>
       <c r="B1306">
-        <v>0.9538495173999209</v>
+        <v>0.9538495173999206</v>
       </c>
     </row>
     <row r="1307" spans="1:2">
@@ -10871,7 +10871,7 @@
         <v>1316</v>
       </c>
       <c r="B1316">
-        <v>0.3482299388477971</v>
+        <v>0.348229938847797</v>
       </c>
     </row>
     <row r="1317" spans="1:2">
@@ -10927,7 +10927,7 @@
         <v>1323</v>
       </c>
       <c r="B1323">
-        <v>21.27698671391754</v>
+        <v>21.27698671391753</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -11223,7 +11223,7 @@
         <v>1360</v>
       </c>
       <c r="B1360">
-        <v>0.402448081000146</v>
+        <v>0.4024480810001459</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -11247,7 +11247,7 @@
         <v>1363</v>
       </c>
       <c r="B1363">
-        <v>6.827324302446968</v>
+        <v>6.827324302446967</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -11255,7 +11255,7 @@
         <v>1364</v>
       </c>
       <c r="B1364">
-        <v>2.096536427850893</v>
+        <v>2.096536427850892</v>
       </c>
     </row>
     <row r="1365" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>23.23900939644365</v>
+        <v>23.23900939644364</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11527,7 +11527,7 @@
         <v>1398</v>
       </c>
       <c r="B1398">
-        <v>8.24851369022743</v>
+        <v>8.248513690227428</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
@@ -11679,7 +11679,7 @@
         <v>1417</v>
       </c>
       <c r="B1417">
-        <v>37.58430921104691</v>
+        <v>37.5843092110469</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -11695,7 +11695,7 @@
         <v>1419</v>
       </c>
       <c r="B1419">
-        <v>57.49965857223997</v>
+        <v>57.49965857223996</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -11719,7 +11719,7 @@
         <v>1422</v>
       </c>
       <c r="B1422">
-        <v>67.78293517678925</v>
+        <v>67.78293517678924</v>
       </c>
     </row>
     <row r="1423" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>9.163041866370158</v>
+        <v>9.163041866370156</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11791,7 +11791,7 @@
         <v>1431</v>
       </c>
       <c r="B1431">
-        <v>11.64101611245957</v>
+        <v>11.64101611245956</v>
       </c>
     </row>
     <row r="1432" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>85.29305052368865</v>
+        <v>85.29305052368863</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -12031,7 +12031,7 @@
         <v>1461</v>
       </c>
       <c r="B1461">
-        <v>64.98322754445742</v>
+        <v>64.98322754445741</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -12143,7 +12143,7 @@
         <v>1475</v>
       </c>
       <c r="B1475">
-        <v>18.9092071783648</v>
+        <v>18.90920717836479</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
@@ -12247,7 +12247,7 @@
         <v>1488</v>
       </c>
       <c r="B1488">
-        <v>80.47525571913479</v>
+        <v>80.47525571913478</v>
       </c>
     </row>
     <row r="1489" spans="1:2">
@@ -12255,7 +12255,7 @@
         <v>1489</v>
       </c>
       <c r="B1489">
-        <v>88.14639015609551</v>
+        <v>88.14639015609549</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -12455,7 +12455,7 @@
         <v>1514</v>
       </c>
       <c r="B1514">
-        <v>60.98984157165793</v>
+        <v>60.98984157165792</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -12543,7 +12543,7 @@
         <v>1525</v>
       </c>
       <c r="B1525">
-        <v>4.758799604471327</v>
+        <v>4.758799604471326</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
@@ -12559,7 +12559,7 @@
         <v>1527</v>
       </c>
       <c r="B1527">
-        <v>3.262877101832222</v>
+        <v>3.262877101832221</v>
       </c>
     </row>
     <row r="1528" spans="1:2">
@@ -12719,7 +12719,7 @@
         <v>1547</v>
       </c>
       <c r="B1547">
-        <v>5.37638820424238</v>
+        <v>5.376388204242379</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
@@ -12767,7 +12767,7 @@
         <v>1553</v>
       </c>
       <c r="B1553">
-        <v>0.5233457458687242</v>
+        <v>0.5233457458687241</v>
       </c>
     </row>
     <row r="1554" spans="1:2">
@@ -12831,7 +12831,7 @@
         <v>1561</v>
       </c>
       <c r="B1561">
-        <v>31.17748323487124</v>
+        <v>31.17748323487123</v>
       </c>
     </row>
     <row r="1562" spans="1:2">
@@ -12871,7 +12871,7 @@
         <v>1566</v>
       </c>
       <c r="B1566">
-        <v>44.81700937417025</v>
+        <v>44.81700937417024</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>8.55588659557545</v>
+        <v>8.555886595575448</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13407,7 +13407,7 @@
         <v>1633</v>
       </c>
       <c r="B1633">
-        <v>93.516623868526</v>
+        <v>93.51662386852598</v>
       </c>
     </row>
     <row r="1634" spans="1:2">
@@ -13519,7 +13519,7 @@
         <v>1647</v>
       </c>
       <c r="B1647">
-        <v>6.309555698443969</v>
+        <v>6.309555698443968</v>
       </c>
     </row>
     <row r="1648" spans="1:2">
@@ -13535,7 +13535,7 @@
         <v>1649</v>
       </c>
       <c r="B1649">
-        <v>4.346184889140019</v>
+        <v>4.346184889140018</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -13583,7 +13583,7 @@
         <v>1655</v>
       </c>
       <c r="B1655">
-        <v>48.50354996949131</v>
+        <v>48.5035499694913</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -13639,7 +13639,7 @@
         <v>1662</v>
       </c>
       <c r="B1662">
-        <v>86.47793673299647</v>
+        <v>86.47793673299645</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -13655,7 +13655,7 @@
         <v>1664</v>
       </c>
       <c r="B1664">
-        <v>7.926545847154076</v>
+        <v>7.926545847154075</v>
       </c>
     </row>
     <row r="1665" spans="1:2">
@@ -13671,7 +13671,7 @@
         <v>1666</v>
       </c>
       <c r="B1666">
-        <v>6.964276398813414</v>
+        <v>6.964276398813413</v>
       </c>
     </row>
     <row r="1667" spans="1:2">
@@ -13703,7 +13703,7 @@
         <v>1670</v>
       </c>
       <c r="B1670">
-        <v>5.086921939356569</v>
+        <v>5.086921939356568</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>71.90263476725178</v>
+        <v>71.90263476725177</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13815,7 +13815,7 @@
         <v>1684</v>
       </c>
       <c r="B1684">
-        <v>77.27081698241165</v>
+        <v>77.27081698241163</v>
       </c>
     </row>
     <row r="1685" spans="1:2">
@@ -13823,7 +13823,7 @@
         <v>1685</v>
       </c>
       <c r="B1685">
-        <v>74.13935293431517</v>
+        <v>74.13935293431516</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>6.282622469990992</v>
+        <v>6.282622469990991</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13887,7 +13887,7 @@
         <v>1693</v>
       </c>
       <c r="B1693">
-        <v>5.22346373626889</v>
+        <v>5.223463736268889</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>5.339666403098113</v>
+        <v>5.339666403098112</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13943,7 +13943,7 @@
         <v>1700</v>
       </c>
       <c r="B1700">
-        <v>5.173524431280996</v>
+        <v>5.173524431280995</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -13991,7 +13991,7 @@
         <v>1706</v>
       </c>
       <c r="B1706">
-        <v>58.5054783769257</v>
+        <v>58.50547837692569</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>58.60512253007056</v>
+        <v>58.60512253007055</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14047,7 +14047,7 @@
         <v>1713</v>
       </c>
       <c r="B1713">
-        <v>6.661944315330371</v>
+        <v>6.66194431533037</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
@@ -14055,7 +14055,7 @@
         <v>1714</v>
       </c>
       <c r="B1714">
-        <v>8.347014866321508</v>
+        <v>8.347014866321507</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -14271,7 +14271,7 @@
         <v>1741</v>
       </c>
       <c r="B1741">
-        <v>4.988244920639294</v>
+        <v>4.988244920639293</v>
       </c>
     </row>
     <row r="1742" spans="1:2">
@@ -14359,7 +14359,7 @@
         <v>1752</v>
       </c>
       <c r="B1752">
-        <v>52.19771041181757</v>
+        <v>52.19771041181756</v>
       </c>
     </row>
     <row r="1753" spans="1:2">
@@ -14367,7 +14367,7 @@
         <v>1753</v>
       </c>
       <c r="B1753">
-        <v>61.85352192259291</v>
+        <v>61.8535219225929</v>
       </c>
     </row>
     <row r="1754" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>4.835496295289001</v>
+        <v>4.835496295289</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14439,7 +14439,7 @@
         <v>1762</v>
       </c>
       <c r="B1762">
-        <v>10.88943543381255</v>
+        <v>10.88943543381254</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
@@ -14503,7 +14503,7 @@
         <v>1770</v>
       </c>
       <c r="B1770">
-        <v>8.41409882707109</v>
+        <v>8.414098827071088</v>
       </c>
     </row>
     <row r="1771" spans="1:2">
@@ -14615,7 +14615,7 @@
         <v>1784</v>
       </c>
       <c r="B1784">
-        <v>7.310920823342054</v>
+        <v>7.310920823342053</v>
       </c>
     </row>
     <row r="1785" spans="1:2">
@@ -14631,7 +14631,7 @@
         <v>1786</v>
       </c>
       <c r="B1786">
-        <v>7.993424658176595</v>
+        <v>7.993424658176594</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -14783,7 +14783,7 @@
         <v>1805</v>
       </c>
       <c r="B1805">
-        <v>68.18825242325789</v>
+        <v>68.18825242325788</v>
       </c>
     </row>
     <row r="1806" spans="1:2">
@@ -14799,7 +14799,7 @@
         <v>1807</v>
       </c>
       <c r="B1807">
-        <v>4.434106200738422</v>
+        <v>4.434106200738421</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -14815,7 +14815,7 @@
         <v>1809</v>
       </c>
       <c r="B1809">
-        <v>8.128061493337617</v>
+        <v>8.128061493337615</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -14967,7 +14967,7 @@
         <v>1828</v>
       </c>
       <c r="B1828">
-        <v>85.48706355128246</v>
+        <v>85.48706355128245</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>0.9630490173035005</v>
+        <v>0.9630490173035002</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15143,7 +15143,7 @@
         <v>1850</v>
       </c>
       <c r="B1850">
-        <v>46.27943385709036</v>
+        <v>46.27943385709035</v>
       </c>
     </row>
     <row r="1851" spans="1:2">
@@ -15191,7 +15191,7 @@
         <v>1856</v>
       </c>
       <c r="B1856">
-        <v>4.866415289867773</v>
+        <v>4.866415289867772</v>
       </c>
     </row>
     <row r="1857" spans="1:2">
@@ -15295,7 +15295,7 @@
         <v>1869</v>
       </c>
       <c r="B1869">
-        <v>0.3008403518962576</v>
+        <v>0.3008403518962575</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -15303,7 +15303,7 @@
         <v>1870</v>
       </c>
       <c r="B1870">
-        <v>0.6944464796599908</v>
+        <v>0.6944464796599907</v>
       </c>
     </row>
     <row r="1871" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>34.84819799410459</v>
+        <v>34.84819799410458</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>2.716035850794018</v>
+        <v>2.716035850794017</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15431,7 +15431,7 @@
         <v>1886</v>
       </c>
       <c r="B1886">
-        <v>5.775785415730061</v>
+        <v>5.77578541573006</v>
       </c>
     </row>
     <row r="1887" spans="1:2">
@@ -15527,7 +15527,7 @@
         <v>1898</v>
       </c>
       <c r="B1898">
-        <v>50.24380579706238</v>
+        <v>50.24380579706237</v>
       </c>
     </row>
     <row r="1899" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>3.766285224940815</v>
+        <v>3.766285224940814</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15671,7 +15671,7 @@
         <v>1916</v>
       </c>
       <c r="B1916">
-        <v>0.9458281630717598</v>
+        <v>0.9458281630717597</v>
       </c>
     </row>
     <row r="1917" spans="1:2">
@@ -15775,7 +15775,7 @@
         <v>1929</v>
       </c>
       <c r="B1929">
-        <v>6.138548747385074</v>
+        <v>6.138548747385073</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -15871,7 +15871,7 @@
         <v>1941</v>
       </c>
       <c r="B1941">
-        <v>0.4267847000505841</v>
+        <v>0.426784700050584</v>
       </c>
     </row>
     <row r="1942" spans="1:2">
@@ -15975,7 +15975,7 @@
         <v>1954</v>
       </c>
       <c r="B1954">
-        <v>6.459989062588838</v>
+        <v>6.459989062588837</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -16087,7 +16087,7 @@
         <v>1968</v>
       </c>
       <c r="B1968">
-        <v>60.8702685878841</v>
+        <v>60.87026858788409</v>
       </c>
     </row>
     <row r="1969" spans="1:2">
@@ -16103,7 +16103,7 @@
         <v>1970</v>
       </c>
       <c r="B1970">
-        <v>71.92314973995808</v>
+        <v>71.92314973995806</v>
       </c>
     </row>
     <row r="1971" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>5.166842411599518</v>
+        <v>5.166842411599517</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16151,7 +16151,7 @@
         <v>1976</v>
       </c>
       <c r="B1976">
-        <v>7.015739673202347</v>
+        <v>7.015739673202346</v>
       </c>
     </row>
     <row r="1977" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>39.63023813194176</v>
+        <v>39.63023813194175</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16311,7 +16311,7 @@
         <v>1996</v>
       </c>
       <c r="B1996">
-        <v>65.53361495506343</v>
+        <v>65.53361495506341</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
@@ -16399,7 +16399,7 @@
         <v>2007</v>
       </c>
       <c r="B2007">
-        <v>9.91764117671539</v>
+        <v>9.917641176715389</v>
       </c>
     </row>
     <row r="2008" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>10.92598139233362</v>
+        <v>10.92598139233361</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16463,7 +16463,7 @@
         <v>2015</v>
       </c>
       <c r="B2015">
-        <v>51.25783159083064</v>
+        <v>51.25783159083063</v>
       </c>
     </row>
     <row r="2016" spans="1:2">
@@ -16495,7 +16495,7 @@
         <v>2019</v>
       </c>
       <c r="B2019">
-        <v>62.07742819613018</v>
+        <v>62.07742819613017</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -16527,7 +16527,7 @@
         <v>2023</v>
       </c>
       <c r="B2023">
-        <v>2.949847925438039</v>
+        <v>2.949847925438038</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -16535,7 +16535,7 @@
         <v>2024</v>
       </c>
       <c r="B2024">
-        <v>5.076342074860895</v>
+        <v>5.076342074860894</v>
       </c>
     </row>
     <row r="2025" spans="1:2">
@@ -16599,7 +16599,7 @@
         <v>2032</v>
       </c>
       <c r="B2032">
-        <v>9.156740839038941</v>
+        <v>9.156740839038935</v>
       </c>
     </row>
     <row r="2033" spans="1:2">
@@ -16663,7 +16663,7 @@
         <v>2040</v>
       </c>
       <c r="B2040">
-        <v>51.04095902222124</v>
+        <v>51.04095902222123</v>
       </c>
     </row>
     <row r="2041" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>60.60240165854763</v>
+        <v>60.60240165854762</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16695,7 +16695,7 @@
         <v>2044</v>
       </c>
       <c r="B2044">
-        <v>61.10970762647042</v>
+        <v>61.10970762647041</v>
       </c>
     </row>
     <row r="2045" spans="1:2">
@@ -16751,7 +16751,7 @@
         <v>2051</v>
       </c>
       <c r="B2051">
-        <v>9.983875231452854</v>
+        <v>9.983875231452853</v>
       </c>
     </row>
     <row r="2052" spans="1:2">
@@ -17063,7 +17063,7 @@
         <v>2090</v>
       </c>
       <c r="B2090">
-        <v>50.05272347985518</v>
+        <v>50.05272347985517</v>
       </c>
     </row>
     <row r="2091" spans="1:2">
@@ -17079,7 +17079,7 @@
         <v>2092</v>
       </c>
       <c r="B2092">
-        <v>51.97087342789369</v>
+        <v>51.97087342789368</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -17087,7 +17087,7 @@
         <v>2093</v>
       </c>
       <c r="B2093">
-        <v>46.54964535473612</v>
+        <v>46.54964535473611</v>
       </c>
     </row>
     <row r="2094" spans="1:2">
@@ -17191,7 +17191,7 @@
         <v>2106</v>
       </c>
       <c r="B2106">
-        <v>0.2293107965612217</v>
+        <v>0.2293107965612216</v>
       </c>
     </row>
     <row r="2107" spans="1:2">
@@ -17239,7 +17239,7 @@
         <v>2112</v>
       </c>
       <c r="B2112">
-        <v>26.19876312298844</v>
+        <v>26.19876312298843</v>
       </c>
     </row>
     <row r="2113" spans="1:2">
@@ -17279,7 +17279,7 @@
         <v>2117</v>
       </c>
       <c r="B2117">
-        <v>48.84995993718902</v>
+        <v>48.84995993718901</v>
       </c>
     </row>
     <row r="2118" spans="1:2">
@@ -17479,7 +17479,7 @@
         <v>2142</v>
       </c>
       <c r="B2142">
-        <v>38.12707677464772</v>
+        <v>38.12707677464771</v>
       </c>
     </row>
     <row r="2143" spans="1:2">
@@ -17495,7 +17495,7 @@
         <v>2144</v>
       </c>
       <c r="B2144">
-        <v>2.809291055296058</v>
+        <v>2.809291055296057</v>
       </c>
     </row>
     <row r="2145" spans="1:2">
@@ -17527,7 +17527,7 @@
         <v>2148</v>
       </c>
       <c r="B2148">
-        <v>3.616027703419143</v>
+        <v>3.616027703419142</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -17543,7 +17543,7 @@
         <v>2150</v>
       </c>
       <c r="B2150">
-        <v>3.534524647567423</v>
+        <v>3.534524647567422</v>
       </c>
     </row>
     <row r="2151" spans="1:2">
@@ -17647,7 +17647,7 @@
         <v>2163</v>
       </c>
       <c r="B2163">
-        <v>52.78854162575884</v>
+        <v>52.78854162575883</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
@@ -17663,7 +17663,7 @@
         <v>2165</v>
       </c>
       <c r="B2165">
-        <v>63.56036765175659</v>
+        <v>63.56036765175658</v>
       </c>
     </row>
     <row r="2166" spans="1:2">
@@ -17823,7 +17823,7 @@
         <v>2185</v>
       </c>
       <c r="B2185">
-        <v>34.38719725029029</v>
+        <v>34.38719725029028</v>
       </c>
     </row>
     <row r="2186" spans="1:2">
@@ -17871,7 +17871,7 @@
         <v>2191</v>
       </c>
       <c r="B2191">
-        <v>1.725728296184626</v>
+        <v>1.725728296184625</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>0.3362169569730686</v>
+        <v>0.3362169569730685</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18031,7 +18031,7 @@
         <v>2211</v>
       </c>
       <c r="B2211">
-        <v>15.57860135949794</v>
+        <v>15.57860135949793</v>
       </c>
     </row>
     <row r="2212" spans="1:2">
@@ -18063,7 +18063,7 @@
         <v>2215</v>
       </c>
       <c r="B2215">
-        <v>0.75194408673496</v>
+        <v>0.7519440867349599</v>
       </c>
     </row>
     <row r="2216" spans="1:2">
@@ -18423,7 +18423,7 @@
         <v>2260</v>
       </c>
       <c r="B2260">
-        <v>1.300959924880032</v>
+        <v>1.300959924880031</v>
       </c>
     </row>
     <row r="2261" spans="1:2">
@@ -18623,7 +18623,7 @@
         <v>2285</v>
       </c>
       <c r="B2285">
-        <v>13.62856528245308</v>
+        <v>13.62856528245307</v>
       </c>
     </row>
     <row r="2286" spans="1:2">
@@ -18679,7 +18679,7 @@
         <v>2292</v>
       </c>
       <c r="B2292">
-        <v>0.5419850639275857</v>
+        <v>0.5419850639275856</v>
       </c>
     </row>
     <row r="2293" spans="1:2">
@@ -18791,7 +18791,7 @@
         <v>2306</v>
       </c>
       <c r="B2306">
-        <v>0.7352536910831965</v>
+        <v>0.7352536910831964</v>
       </c>
     </row>
     <row r="2307" spans="1:2">
@@ -19191,7 +19191,7 @@
         <v>2356</v>
       </c>
       <c r="B2356">
-        <v>39.6428401866042</v>
+        <v>39.64284018660419</v>
       </c>
     </row>
     <row r="2357" spans="1:2">
@@ -19199,7 +19199,7 @@
         <v>2357</v>
       </c>
       <c r="B2357">
-        <v>41.83911455033232</v>
+        <v>41.83911455033231</v>
       </c>
     </row>
     <row r="2358" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>2.380287807482808</v>
+        <v>2.380287807482807</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19311,7 +19311,7 @@
         <v>2371</v>
       </c>
       <c r="B2371">
-        <v>4.942555145711991</v>
+        <v>4.94255514571199</v>
       </c>
     </row>
     <row r="2372" spans="1:2">
@@ -19383,7 +19383,7 @@
         <v>2380</v>
       </c>
       <c r="B2380">
-        <v>82.89807399574813</v>
+        <v>82.89807399574812</v>
       </c>
     </row>
     <row r="2381" spans="1:2">
@@ -19415,7 +19415,7 @@
         <v>2384</v>
       </c>
       <c r="B2384">
-        <v>7.327772408065082</v>
+        <v>7.327772408065081</v>
       </c>
     </row>
     <row r="2385" spans="1:2">
@@ -19447,7 +19447,7 @@
         <v>2388</v>
       </c>
       <c r="B2388">
-        <v>6.026449075097109</v>
+        <v>6.026449075097108</v>
       </c>
     </row>
     <row r="2389" spans="1:2">
@@ -19471,7 +19471,7 @@
         <v>2391</v>
       </c>
       <c r="B2391">
-        <v>2.739947516838397</v>
+        <v>2.739947516838396</v>
       </c>
     </row>
     <row r="2392" spans="1:2">
@@ -19583,7 +19583,7 @@
         <v>2405</v>
       </c>
       <c r="B2405">
-        <v>53.96610105910013</v>
+        <v>53.96610105910012</v>
       </c>
     </row>
     <row r="2406" spans="1:2">
@@ -19591,7 +19591,7 @@
         <v>2406</v>
       </c>
       <c r="B2406">
-        <v>52.9010809046048</v>
+        <v>52.90108090460479</v>
       </c>
     </row>
     <row r="2407" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>38.07842698222994</v>
+        <v>38.07842698222993</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -20175,7 +20175,7 @@
         <v>2479</v>
       </c>
       <c r="B2479">
-        <v>1.975436543965639</v>
+        <v>1.975436543965638</v>
       </c>
     </row>
     <row r="2480" spans="1:2">
@@ -20295,7 +20295,7 @@
         <v>2494</v>
       </c>
       <c r="B2494">
-        <v>0.6012674736280027</v>
+        <v>0.6012674736280026</v>
       </c>
     </row>
     <row r="2495" spans="1:2">
@@ -20303,7 +20303,7 @@
         <v>2495</v>
       </c>
       <c r="B2495">
-        <v>6.509107768668479</v>
+        <v>6.509107768668478</v>
       </c>
     </row>
     <row r="2496" spans="1:2">
@@ -20535,7 +20535,7 @@
         <v>2524</v>
       </c>
       <c r="B2524">
-        <v>34.42002120662036</v>
+        <v>34.42002120662035</v>
       </c>
     </row>
     <row r="2525" spans="1:2">
@@ -20559,7 +20559,7 @@
         <v>2527</v>
       </c>
       <c r="B2527">
-        <v>1.378855276245831</v>
+        <v>1.37885527624583</v>
       </c>
     </row>
     <row r="2528" spans="1:2">
@@ -20743,7 +20743,7 @@
         <v>2550</v>
       </c>
       <c r="B2550">
-        <v>8.31788360507857</v>
+        <v>8.317883605078569</v>
       </c>
     </row>
     <row r="2551" spans="1:2">
@@ -20775,7 +20775,7 @@
         <v>2554</v>
       </c>
       <c r="B2554">
-        <v>0.8054090363179494</v>
+        <v>0.8054090363179492</v>
       </c>
     </row>
     <row r="2555" spans="1:2">
@@ -20807,7 +20807,7 @@
         <v>2558</v>
       </c>
       <c r="B2558">
-        <v>0.6244464620757284</v>
+        <v>0.6244464620757283</v>
       </c>
     </row>
     <row r="2559" spans="1:2">
@@ -20879,7 +20879,7 @@
         <v>2567</v>
       </c>
       <c r="B2567">
-        <v>24.70017367389752</v>
+        <v>24.70017367389751</v>
       </c>
     </row>
     <row r="2568" spans="1:2">
@@ -20895,7 +20895,7 @@
         <v>2569</v>
       </c>
       <c r="B2569">
-        <v>41.51790869195949</v>
+        <v>41.51790869195948</v>
       </c>
     </row>
     <row r="2570" spans="1:2">
@@ -20919,7 +20919,7 @@
         <v>2572</v>
       </c>
       <c r="B2572">
-        <v>59.05850342687966</v>
+        <v>59.05850342687965</v>
       </c>
     </row>
     <row r="2573" spans="1:2">
@@ -20967,7 +20967,7 @@
         <v>2578</v>
       </c>
       <c r="B2578">
-        <v>4.756660185889099</v>
+        <v>4.756660185889098</v>
       </c>
     </row>
     <row r="2579" spans="1:2">
@@ -21087,7 +21087,7 @@
         <v>2593</v>
       </c>
       <c r="B2593">
-        <v>38.4532648406778</v>
+        <v>38.45326484067779</v>
       </c>
     </row>
     <row r="2594" spans="1:2">
@@ -21175,7 +21175,7 @@
         <v>2604</v>
       </c>
       <c r="B2604">
-        <v>1.461375288601706</v>
+        <v>1.461375288601705</v>
       </c>
     </row>
     <row r="2605" spans="1:2">
@@ -21183,7 +21183,7 @@
         <v>2605</v>
       </c>
       <c r="B2605">
-        <v>0.6023928664164622</v>
+        <v>0.6023928664164621</v>
       </c>
     </row>
     <row r="2606" spans="1:2">
@@ -21271,7 +21271,7 @@
         <v>2616</v>
       </c>
       <c r="B2616">
-        <v>4.522936032556676</v>
+        <v>4.522936032556675</v>
       </c>
     </row>
     <row r="2617" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>1.396937759331236</v>
+        <v>1.396937759331235</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -21575,7 +21575,7 @@
         <v>2654</v>
       </c>
       <c r="B2654">
-        <v>0.4150237592691043</v>
+        <v>0.4150237592691042</v>
       </c>
     </row>
     <row r="2655" spans="1:2">
@@ -21631,7 +21631,7 @@
         <v>2661</v>
       </c>
       <c r="B2661">
-        <v>7.803602546435641</v>
+        <v>7.80360254643564</v>
       </c>
     </row>
     <row r="2662" spans="1:2">
@@ -21663,7 +21663,7 @@
         <v>2665</v>
       </c>
       <c r="B2665">
-        <v>29.82496039144913</v>
+        <v>29.82496039144912</v>
       </c>
     </row>
     <row r="2666" spans="1:2">
@@ -21671,7 +21671,7 @@
         <v>2666</v>
       </c>
       <c r="B2666">
-        <v>36.96768774570344</v>
+        <v>36.96768774570343</v>
       </c>
     </row>
     <row r="2667" spans="1:2">
@@ -21727,7 +21727,7 @@
         <v>2673</v>
       </c>
       <c r="B2673">
-        <v>1.981277449766159</v>
+        <v>1.981277449766158</v>
       </c>
     </row>
     <row r="2674" spans="1:2">
@@ -21887,7 +21887,7 @@
         <v>2693</v>
       </c>
       <c r="B2693">
-        <v>25.044444223013</v>
+        <v>25.04444422301299</v>
       </c>
     </row>
     <row r="2694" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>3.080557608680999</v>
+        <v>3.080557608680998</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -21959,7 +21959,7 @@
         <v>2702</v>
       </c>
       <c r="B2702">
-        <v>3.00617617906875</v>
+        <v>3.006176179068749</v>
       </c>
     </row>
     <row r="2703" spans="1:2">
@@ -22071,7 +22071,7 @@
         <v>2716</v>
       </c>
       <c r="B2716">
-        <v>48.81713598085895</v>
+        <v>48.81713598085894</v>
       </c>
     </row>
     <row r="2717" spans="1:2">
@@ -22831,7 +22831,7 @@
         <v>2811</v>
       </c>
       <c r="B2811">
-        <v>10.26841790288916</v>
+        <v>10.26841790288915</v>
       </c>
     </row>
     <row r="2812" spans="1:2">
@@ -23031,7 +23031,7 @@
         <v>2836</v>
       </c>
       <c r="B2836">
-        <v>25.92433140238596</v>
+        <v>25.92433140238595</v>
       </c>
     </row>
     <row r="2837" spans="1:2">
@@ -23415,7 +23415,7 @@
         <v>2884</v>
       </c>
       <c r="B2884">
-        <v>7.798561724570666</v>
+        <v>7.798561724570665</v>
       </c>
     </row>
     <row r="2885" spans="1:2">
@@ -23431,7 +23431,7 @@
         <v>2886</v>
       </c>
       <c r="B2886">
-        <v>8.854027763205636</v>
+        <v>8.854027763205634</v>
       </c>
     </row>
     <row r="2887" spans="1:2">
@@ -23807,7 +23807,7 @@
         <v>2933</v>
       </c>
       <c r="B2933">
-        <v>0.5007587609190943</v>
+        <v>0.5007587609190942</v>
       </c>
     </row>
     <row r="2934" spans="1:2">
@@ -24023,7 +24023,7 @@
         <v>2960</v>
       </c>
       <c r="B2960">
-        <v>0.5864644554652181</v>
+        <v>0.586464455465218</v>
       </c>
     </row>
     <row r="2961" spans="1:2">
@@ -24391,7 +24391,7 @@
         <v>3006</v>
       </c>
       <c r="B3006">
-        <v>7.542476250988383</v>
+        <v>7.542476250988382</v>
       </c>
     </row>
     <row r="3007" spans="1:2">
@@ -24567,7 +24567,7 @@
         <v>3028</v>
       </c>
       <c r="B3028">
-        <v>0.4286779389603364</v>
+        <v>0.4286779389603363</v>
       </c>
     </row>
     <row r="3029" spans="1:2">
@@ -25127,7 +25127,7 @@
         <v>3098</v>
       </c>
       <c r="B3098">
-        <v>0.3272284682173251</v>
+        <v>0.327228468217325</v>
       </c>
     </row>
     <row r="3099" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>0.4942994752269982</v>
+        <v>0.4942994752269981</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25151,7 +25151,7 @@
         <v>3101</v>
       </c>
       <c r="B3101">
-        <v>0.2642545357139299</v>
+        <v>0.2642545357139298</v>
       </c>
     </row>
     <row r="3102" spans="1:2">
@@ -26071,7 +26071,7 @@
         <v>3216</v>
       </c>
       <c r="B3216">
-        <v>0.6975120027243885</v>
+        <v>0.6975120027243884</v>
       </c>
     </row>
     <row r="3217" spans="1:2">
@@ -26295,7 +26295,7 @@
         <v>3244</v>
       </c>
       <c r="B3244">
-        <v>6.802677028095549</v>
+        <v>6.802677028095548</v>
       </c>
     </row>
     <row r="3245" spans="1:2">
@@ -26847,7 +26847,7 @@
         <v>3313</v>
       </c>
       <c r="B3313">
-        <v>13.99666250701173</v>
+        <v>13.99666250701172</v>
       </c>
     </row>
     <row r="3314" spans="1:2">
@@ -27031,7 +27031,7 @@
         <v>3336</v>
       </c>
       <c r="B3336">
-        <v>2.127751424178713</v>
+        <v>2.127751424178712</v>
       </c>
     </row>
     <row r="3337" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>22.65708754207768</v>
+        <v>22.65708754207767</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27279,7 +27279,7 @@
         <v>3367</v>
       </c>
       <c r="B3367">
-        <v>1.235270982274478</v>
+        <v>1.235270982274477</v>
       </c>
     </row>
     <row r="3368" spans="1:2">
@@ -27639,7 +27639,7 @@
         <v>3412</v>
       </c>
       <c r="B3412">
-        <v>16.46733928423847</v>
+        <v>16.46733928423846</v>
       </c>
     </row>
     <row r="3413" spans="1:2">
@@ -30919,7 +30919,7 @@
         <v>3822</v>
       </c>
       <c r="B3822">
-        <v>0.204694294668862</v>
+        <v>0.2046942946688619</v>
       </c>
     </row>
     <row r="3823" spans="1:2">
@@ -42055,7 +42055,7 @@
         <v>5214</v>
       </c>
       <c r="B5214">
-        <v>0.543567647536357</v>
+        <v>0.5435676475363569</v>
       </c>
     </row>
     <row r="5215" spans="1:2">
@@ -42239,7 +42239,7 @@
         <v>5237</v>
       </c>
       <c r="B5237">
-        <v>0.7609032683868374</v>
+        <v>0.7609032683868373</v>
       </c>
     </row>
     <row r="5238" spans="1:2">
@@ -47607,7 +47607,7 @@
         <v>5908</v>
       </c>
       <c r="B5908">
-        <v>2.014227426642854</v>
+        <v>2.014227426642853</v>
       </c>
     </row>
     <row r="5909" spans="1:2">
@@ -47807,7 +47807,7 @@
         <v>5933</v>
       </c>
       <c r="B5933">
-        <v>7.594437746143039</v>
+        <v>7.594437746143038</v>
       </c>
     </row>
     <row r="5934" spans="1:2">
@@ -51271,7 +51271,7 @@
         <v>6366</v>
       </c>
       <c r="B6366">
-        <v>3.550174641031939</v>
+        <v>3.550174641031938</v>
       </c>
     </row>
     <row r="6367" spans="1:2">
@@ -51431,7 +51431,7 @@
         <v>6386</v>
       </c>
       <c r="B6386">
-        <v>0.454125297247301</v>
+        <v>0.4541252972473009</v>
       </c>
     </row>
     <row r="6387" spans="1:2">
@@ -51439,7 +51439,7 @@
         <v>6387</v>
       </c>
       <c r="B6387">
-        <v>0.7264527677921964</v>
+        <v>0.7264527677921963</v>
       </c>
     </row>
     <row r="6388" spans="1:2">
@@ -51807,7 +51807,7 @@
         <v>6433</v>
       </c>
       <c r="B6433">
-        <v>0.4821165121498461</v>
+        <v>0.482116512149846</v>
       </c>
     </row>
     <row r="6434" spans="1:2">
@@ -52031,7 +52031,7 @@
         <v>6461</v>
       </c>
       <c r="B6461">
-        <v>4.87060620572063</v>
+        <v>4.870606205720629</v>
       </c>
     </row>
     <row r="6462" spans="1:2">
@@ -52807,7 +52807,7 @@
         <v>6558</v>
       </c>
       <c r="B6558">
-        <v>4.604439088408396</v>
+        <v>4.604439088408395</v>
       </c>
     </row>
     <row r="6559" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>0.7966667272346815</v>
+        <v>0.7966667272346813</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52959,7 +52959,7 @@
         <v>6577</v>
       </c>
       <c r="B6577">
-        <v>4.208529422280785</v>
+        <v>4.208529422280784</v>
       </c>
     </row>
     <row r="6578" spans="1:2">
@@ -52991,7 +52991,7 @@
         <v>6581</v>
       </c>
       <c r="B6581">
-        <v>8.20188608797641</v>
+        <v>8.201886087976408</v>
       </c>
     </row>
     <row r="6582" spans="1:2">
@@ -52999,7 +52999,7 @@
         <v>6582</v>
       </c>
       <c r="B6582">
-        <v>6.808772905699705</v>
+        <v>6.808772905699704</v>
       </c>
     </row>
     <row r="6583" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>0.7004368516902286</v>
+        <v>0.7004368516902285</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53919,7 +53919,7 @@
         <v>6697</v>
       </c>
       <c r="B6697">
-        <v>6.905076049003823</v>
+        <v>6.905076049003822</v>
       </c>
     </row>
     <row r="6698" spans="1:2">
@@ -53975,7 +53975,7 @@
         <v>6704</v>
       </c>
       <c r="B6704">
-        <v>1.544613325002301</v>
+        <v>1.5446133250023</v>
       </c>
     </row>
     <row r="6705" spans="1:2">
@@ -54127,7 +54127,7 @@
         <v>6723</v>
       </c>
       <c r="B6723">
-        <v>35.01612769925754</v>
+        <v>35.01612769925753</v>
       </c>
     </row>
     <row r="6724" spans="1:2">
@@ -54343,7 +54343,7 @@
         <v>6750</v>
       </c>
       <c r="B6750">
-        <v>49.24736426561381</v>
+        <v>49.2473642656138</v>
       </c>
     </row>
     <row r="6751" spans="1:2">
@@ -54359,7 +54359,7 @@
         <v>6752</v>
       </c>
       <c r="B6752">
-        <v>5.416744086266047</v>
+        <v>5.416744086266046</v>
       </c>
     </row>
     <row r="6753" spans="1:2">
@@ -54375,7 +54375,7 @@
         <v>6754</v>
       </c>
       <c r="B6754">
-        <v>4.40318720615965</v>
+        <v>4.403187206159649</v>
       </c>
     </row>
     <row r="6755" spans="1:2">
@@ -54895,7 +54895,7 @@
         <v>6819</v>
       </c>
       <c r="B6819">
-        <v>0.8687358263518928</v>
+        <v>0.8687358263518927</v>
       </c>
     </row>
     <row r="6820" spans="1:2">
@@ -55103,7 +55103,7 @@
         <v>6845</v>
       </c>
       <c r="B6845">
-        <v>0.5861918993992631</v>
+        <v>0.586191899399263</v>
       </c>
     </row>
     <row r="6846" spans="1:2">
@@ -55287,7 +55287,7 @@
         <v>6868</v>
       </c>
       <c r="B6868">
-        <v>0.3556592896778622</v>
+        <v>0.3556592896778621</v>
       </c>
     </row>
     <row r="6869" spans="1:2">
@@ -55639,7 +55639,7 @@
         <v>6912</v>
       </c>
       <c r="B6912">
-        <v>0.363068125535221</v>
+        <v>0.3630681255352209</v>
       </c>
     </row>
     <row r="6913" spans="1:2">
@@ -55823,7 +55823,7 @@
         <v>6935</v>
       </c>
       <c r="B6935">
-        <v>0.4286984539330427</v>
+        <v>0.4286984539330426</v>
       </c>
     </row>
     <row r="6936" spans="1:2">
@@ -55839,7 +55839,7 @@
         <v>6937</v>
       </c>
       <c r="B6937">
-        <v>6.899830077411785</v>
+        <v>6.899830077411784</v>
       </c>
     </row>
     <row r="6938" spans="1:2">
@@ -56023,7 +56023,7 @@
         <v>6960</v>
       </c>
       <c r="B6960">
-        <v>10.05353821734266</v>
+        <v>10.05353821734265</v>
       </c>
     </row>
     <row r="6961" spans="1:2">
@@ -56055,7 +56055,7 @@
         <v>6964</v>
       </c>
       <c r="B6964">
-        <v>28.33232028444303</v>
+        <v>28.33232028444302</v>
       </c>
     </row>
     <row r="6965" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>2.330676742058215</v>
+        <v>2.330676742058214</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56119,7 +56119,7 @@
         <v>6972</v>
       </c>
       <c r="B6972">
-        <v>0.758177707727287</v>
+        <v>0.7581777077272869</v>
       </c>
     </row>
     <row r="6973" spans="1:2">
@@ -56255,7 +56255,7 @@
         <v>6989</v>
       </c>
       <c r="B6989">
-        <v>33.73980332588738</v>
+        <v>33.73980332588737</v>
       </c>
     </row>
     <row r="6990" spans="1:2">
@@ -56311,7 +56311,7 @@
         <v>6996</v>
       </c>
       <c r="B6996">
-        <v>1.060465830554532</v>
+        <v>1.060465830554531</v>
       </c>
     </row>
     <row r="6997" spans="1:2">
@@ -56599,7 +56599,7 @@
         <v>7032</v>
       </c>
       <c r="B7032">
-        <v>0.2763360962117052</v>
+        <v>0.2763360962117051</v>
       </c>
     </row>
     <row r="7033" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>11.4870365887469</v>
+        <v>11.48703658874689</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>0.6888253771384661</v>
+        <v>0.688825377138466</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57815,7 +57815,7 @@
         <v>7184</v>
       </c>
       <c r="B7184">
-        <v>3.010748087271867</v>
+        <v>3.010748087271866</v>
       </c>
     </row>
     <row r="7185" spans="1:2">
@@ -57831,7 +57831,7 @@
         <v>7186</v>
       </c>
       <c r="B7186">
-        <v>2.839169647687582</v>
+        <v>2.839169647687581</v>
       </c>
     </row>
     <row r="7187" spans="1:2">
@@ -57983,7 +57983,7 @@
         <v>7205</v>
       </c>
       <c r="B7205">
-        <v>47.64514489725223</v>
+        <v>47.64514489725222</v>
       </c>
     </row>
     <row r="7206" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>4.648077366065071</v>
+        <v>4.64807736606507</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58039,7 +58039,7 @@
         <v>7212</v>
       </c>
       <c r="B7212">
-        <v>2.410239667633997</v>
+        <v>2.410239667633996</v>
       </c>
     </row>
     <row r="7213" spans="1:2">
@@ -58087,7 +58087,7 @@
         <v>7218</v>
       </c>
       <c r="B7218">
-        <v>7.041354081981348</v>
+        <v>7.041354081981347</v>
       </c>
     </row>
     <row r="7219" spans="1:2">
@@ -58359,7 +58359,7 @@
         <v>7252</v>
       </c>
       <c r="B7252">
-        <v>33.96165810215402</v>
+        <v>33.96165810215401</v>
       </c>
     </row>
     <row r="7253" spans="1:2">
@@ -58583,7 +58583,7 @@
         <v>7280</v>
       </c>
       <c r="B7280">
-        <v>2.801574494848105</v>
+        <v>2.801574494848104</v>
       </c>
     </row>
     <row r="7281" spans="1:2">
@@ -58607,7 +58607,7 @@
         <v>7283</v>
       </c>
       <c r="B7283">
-        <v>3.952707712633297</v>
+        <v>3.952707712633296</v>
       </c>
     </row>
     <row r="7284" spans="1:2">
@@ -58703,7 +58703,7 @@
         <v>7295</v>
       </c>
       <c r="B7295">
-        <v>2.930215096558116</v>
+        <v>2.930215096558115</v>
       </c>
     </row>
     <row r="7296" spans="1:2">
@@ -58735,7 +58735,7 @@
         <v>7299</v>
       </c>
       <c r="B7299">
-        <v>31.76596988050322</v>
+        <v>31.76596988050321</v>
       </c>
     </row>
     <row r="7300" spans="1:2">
@@ -58775,7 +58775,7 @@
         <v>7304</v>
       </c>
       <c r="B7304">
-        <v>3.697003231401273</v>
+        <v>3.697003231401272</v>
       </c>
     </row>
     <row r="7305" spans="1:2">
@@ -58783,7 +58783,7 @@
         <v>7305</v>
       </c>
       <c r="B7305">
-        <v>4.213335787314831</v>
+        <v>4.21333578731483</v>
       </c>
     </row>
     <row r="7306" spans="1:2">
@@ -58967,7 +58967,7 @@
         <v>7328</v>
       </c>
       <c r="B7328">
-        <v>3.96117746565061</v>
+        <v>3.961177465650609</v>
       </c>
     </row>
     <row r="7329" spans="1:2">
@@ -59087,7 +59087,7 @@
         <v>7343</v>
       </c>
       <c r="B7343">
-        <v>3.461051738175024</v>
+        <v>3.461051738175023</v>
       </c>
     </row>
     <row r="7344" spans="1:2">
@@ -59295,7 +59295,7 @@
         <v>7369</v>
       </c>
       <c r="B7369">
-        <v>7.49707954709974</v>
+        <v>7.497079547099739</v>
       </c>
     </row>
     <row r="7370" spans="1:2">
@@ -59679,7 +59679,7 @@
         <v>7417</v>
       </c>
       <c r="B7417">
-        <v>32.02299318140922</v>
+        <v>32.02299318140921</v>
       </c>
     </row>
     <row r="7418" spans="1:2">
@@ -59703,7 +59703,7 @@
         <v>7420</v>
       </c>
       <c r="B7420">
-        <v>52.79879911211199</v>
+        <v>52.79879911211198</v>
       </c>
     </row>
     <row r="7421" spans="1:2">
@@ -59711,7 +59711,7 @@
         <v>7421</v>
       </c>
       <c r="B7421">
-        <v>58.72498858488305</v>
+        <v>58.72498858488304</v>
       </c>
     </row>
     <row r="7422" spans="1:2">
@@ -59719,7 +59719,7 @@
         <v>7422</v>
       </c>
       <c r="B7422">
-        <v>60.70468345104044</v>
+        <v>60.70468345104043</v>
       </c>
     </row>
     <row r="7423" spans="1:2">
@@ -59839,7 +59839,7 @@
         <v>7437</v>
       </c>
       <c r="B7437">
-        <v>6.934471074181556</v>
+        <v>6.934471074181555</v>
       </c>
     </row>
     <row r="7438" spans="1:2">
@@ -60023,7 +60023,7 @@
         <v>7460</v>
       </c>
       <c r="B7460">
-        <v>0.6836380197541604</v>
+        <v>0.6836380197541603</v>
       </c>
     </row>
     <row r="7461" spans="1:2">
@@ -60143,7 +60143,7 @@
         <v>7475</v>
       </c>
       <c r="B7475">
-        <v>4.071254947771811</v>
+        <v>4.07125494777181</v>
       </c>
     </row>
     <row r="7476" spans="1:2">
@@ -60255,7 +60255,7 @@
         <v>7489</v>
       </c>
       <c r="B7489">
-        <v>6.68515554159235</v>
+        <v>6.685155541592349</v>
       </c>
     </row>
     <row r="7490" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>1.59883146715465</v>
+        <v>1.598831467154649</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>0.5923375990799915</v>
+        <v>0.5923375990799914</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60399,7 +60399,7 @@
         <v>7507</v>
       </c>
       <c r="B7507">
-        <v>0.8363133773447882</v>
+        <v>0.8363133773447881</v>
       </c>
     </row>
     <row r="7508" spans="1:2">
@@ -60471,7 +60471,7 @@
         <v>7516</v>
       </c>
       <c r="B7516">
-        <v>6.462861158767719</v>
+        <v>6.462861158767718</v>
       </c>
     </row>
     <row r="7517" spans="1:2">
@@ -60479,7 +60479,7 @@
         <v>7517</v>
       </c>
       <c r="B7517">
-        <v>9.79982661917353</v>
+        <v>9.799826619173528</v>
       </c>
     </row>
     <row r="7518" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>0.3671300901310673</v>
+        <v>0.3671300901310672</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60791,7 +60791,7 @@
         <v>7556</v>
       </c>
       <c r="B7556">
-        <v>0.8569983312535059</v>
+        <v>0.8569983312535058</v>
       </c>
     </row>
     <row r="7557" spans="1:2">
@@ -60815,7 +60815,7 @@
         <v>7559</v>
       </c>
       <c r="B7559">
-        <v>6.104112900342366</v>
+        <v>6.104112900342365</v>
       </c>
     </row>
     <row r="7560" spans="1:2">
@@ -61087,7 +61087,7 @@
         <v>7593</v>
       </c>
       <c r="B7593">
-        <v>4.149006694328666</v>
+        <v>4.149006694328665</v>
       </c>
     </row>
     <row r="7594" spans="1:2">
@@ -61111,7 +61111,7 @@
         <v>7596</v>
       </c>
       <c r="B7596">
-        <v>4.140771398142282</v>
+        <v>4.140771398142281</v>
       </c>
     </row>
     <row r="7597" spans="1:2">
@@ -61199,7 +61199,7 @@
         <v>7607</v>
       </c>
       <c r="B7607">
-        <v>7.88170597823889</v>
+        <v>7.881705978238889</v>
       </c>
     </row>
     <row r="7608" spans="1:2">
@@ -61215,7 +61215,7 @@
         <v>7609</v>
       </c>
       <c r="B7609">
-        <v>22.29482243118839</v>
+        <v>22.29482243118838</v>
       </c>
     </row>
     <row r="7610" spans="1:2">
@@ -61263,7 +61263,7 @@
         <v>7615</v>
       </c>
       <c r="B7615">
-        <v>26.02769755772181</v>
+        <v>26.0276975577218</v>
       </c>
     </row>
     <row r="7616" spans="1:2">
@@ -61399,7 +61399,7 @@
         <v>7632</v>
       </c>
       <c r="B7632">
-        <v>43.53804736145214</v>
+        <v>43.53804736145213</v>
       </c>
     </row>
     <row r="7633" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>68.25448647799536</v>
+        <v>68.25448647799534</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>62.34529512546665</v>
+        <v>62.34529512546664</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61503,7 +61503,7 @@
         <v>7645</v>
       </c>
       <c r="B7645">
-        <v>5.15696591759663</v>
+        <v>5.156965917596629</v>
       </c>
     </row>
     <row r="7646" spans="1:2">
@@ -61551,7 +61551,7 @@
         <v>7651</v>
       </c>
       <c r="B7651">
-        <v>49.96861209175938</v>
+        <v>49.96861209175937</v>
       </c>
     </row>
     <row r="7652" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>85.71565896143831</v>
+        <v>85.71565896143829</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61647,7 +61647,7 @@
         <v>7663</v>
       </c>
       <c r="B7663">
-        <v>82.13110708757139</v>
+        <v>82.13110708757138</v>
       </c>
     </row>
     <row r="7664" spans="1:2">
@@ -61831,7 +61831,7 @@
         <v>7686</v>
       </c>
       <c r="B7686">
-        <v>55.31071098447838</v>
+        <v>55.31071098447837</v>
       </c>
     </row>
     <row r="7687" spans="1:2">
@@ -61863,7 +61863,7 @@
         <v>7690</v>
       </c>
       <c r="B7690">
-        <v>4.27066048247699</v>
+        <v>4.270660482476989</v>
       </c>
     </row>
     <row r="7691" spans="1:2">
@@ -61927,7 +61927,7 @@
         <v>7698</v>
       </c>
       <c r="B7698">
-        <v>0.4693825755200106</v>
+        <v>0.4693825755200105</v>
       </c>
     </row>
     <row r="7699" spans="1:2">
@@ -61943,7 +61943,7 @@
         <v>7700</v>
       </c>
       <c r="B7700">
-        <v>20.36023119788098</v>
+        <v>20.36023119788097</v>
       </c>
     </row>
     <row r="7701" spans="1:2">
@@ -61967,7 +61967,7 @@
         <v>7703</v>
       </c>
       <c r="B7703">
-        <v>28.83511295837044</v>
+        <v>28.83511295837043</v>
       </c>
     </row>
     <row r="7704" spans="1:2">
@@ -61983,7 +61983,7 @@
         <v>7705</v>
       </c>
       <c r="B7705">
-        <v>54.70464007652672</v>
+        <v>54.70464007652671</v>
       </c>
     </row>
     <row r="7706" spans="1:2">
@@ -62023,7 +62023,7 @@
         <v>7710</v>
       </c>
       <c r="B7710">
-        <v>76.71984342972831</v>
+        <v>76.7198434297283</v>
       </c>
     </row>
     <row r="7711" spans="1:2">
@@ -62039,7 +62039,7 @@
         <v>7712</v>
       </c>
       <c r="B7712">
-        <v>3.897698278676562</v>
+        <v>3.897698278676561</v>
       </c>
     </row>
     <row r="7713" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>4.220750484592963</v>
+        <v>4.220750484592962</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62095,7 +62095,7 @@
         <v>7719</v>
       </c>
       <c r="B7719">
-        <v>3.417706531557011</v>
+        <v>3.41770653155701</v>
       </c>
     </row>
     <row r="7720" spans="1:2">
@@ -62103,7 +62103,7 @@
         <v>7720</v>
       </c>
       <c r="B7720">
-        <v>3.50202306937988</v>
+        <v>3.502023069379879</v>
       </c>
     </row>
     <row r="7721" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>35.16149093443357</v>
+        <v>35.16149093443356</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62351,7 +62351,7 @@
         <v>7751</v>
       </c>
       <c r="B7751">
-        <v>77.02580959409076</v>
+        <v>77.02580959409075</v>
       </c>
     </row>
     <row r="7752" spans="1:2">
@@ -62551,7 +62551,7 @@
         <v>7776</v>
       </c>
       <c r="B7776">
-        <v>77.38804539787618</v>
+        <v>77.38804539787617</v>
       </c>
     </row>
     <row r="7777" spans="1:2">
@@ -62559,7 +62559,7 @@
         <v>7777</v>
       </c>
       <c r="B7777">
-        <v>84.94136527729503</v>
+        <v>84.94136527729502</v>
       </c>
     </row>
     <row r="7778" spans="1:2">
@@ -62719,7 +62719,7 @@
         <v>7797</v>
       </c>
       <c r="B7797">
-        <v>83.40010468497502</v>
+        <v>83.40010468497501</v>
       </c>
     </row>
     <row r="7798" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>99.72855760399187</v>
+        <v>99.72855760399186</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62823,7 +62823,7 @@
         <v>7810</v>
       </c>
       <c r="B7810">
-        <v>25.24965256428367</v>
+        <v>25.24965256428366</v>
       </c>
     </row>
     <row r="7811" spans="1:2">
@@ -62879,7 +62879,7 @@
         <v>7817</v>
       </c>
       <c r="B7817">
-        <v>20.37429860773673</v>
+        <v>20.37429860773672</v>
       </c>
     </row>
     <row r="7818" spans="1:2">
@@ -63223,7 +63223,7 @@
         <v>7860</v>
       </c>
       <c r="B7860">
-        <v>17.56418695353242</v>
+        <v>17.56418695353241</v>
       </c>
     </row>
     <row r="7861" spans="1:2">
@@ -63343,7 +63343,7 @@
         <v>7875</v>
       </c>
       <c r="B7875">
-        <v>94.64524043841084</v>
+        <v>94.64524043841082</v>
       </c>
     </row>
     <row r="7876" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>88.32516348967893</v>
+        <v>88.32516348967891</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63391,7 +63391,7 @@
         <v>7881</v>
       </c>
       <c r="B7881">
-        <v>13.68588997761524</v>
+        <v>13.68588997761523</v>
       </c>
     </row>
     <row r="7882" spans="1:2">
@@ -63447,7 +63447,7 @@
         <v>7888</v>
       </c>
       <c r="B7888">
-        <v>46.54964535473612</v>
+        <v>46.54964535473611</v>
       </c>
     </row>
     <row r="7889" spans="1:2">
@@ -63479,7 +63479,7 @@
         <v>7892</v>
       </c>
       <c r="B7892">
-        <v>91.48183164710028</v>
+        <v>91.48183164710026</v>
       </c>
     </row>
     <row r="7893" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>56.64828720492876</v>
+        <v>56.64828720492875</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>6.899361163749926</v>
+        <v>6.899361163749925</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63623,7 +63623,7 @@
         <v>7910</v>
       </c>
       <c r="B7910">
-        <v>7.675589116748366</v>
+        <v>7.675589116748365</v>
       </c>
     </row>
     <row r="7911" spans="1:2">
@@ -63647,7 +63647,7 @@
         <v>7913</v>
       </c>
       <c r="B7913">
-        <v>3.299657517184221</v>
+        <v>3.29965751718422</v>
       </c>
     </row>
     <row r="7914" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>3.322927357653932</v>
+        <v>3.322927357653931</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63775,7 +63775,7 @@
         <v>7929</v>
       </c>
       <c r="B7929">
-        <v>3.758049928754431</v>
+        <v>3.75804992875443</v>
       </c>
     </row>
     <row r="7930" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>3.485405941487782</v>
+        <v>3.485405941487781</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63823,7 +63823,7 @@
         <v>7935</v>
       </c>
       <c r="B7935">
-        <v>0.8208069886892164</v>
+        <v>0.8208069886892163</v>
       </c>
     </row>
     <row r="7936" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>0.0209871101495776</v>
+        <v>0.0209871101495775</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63887,7 +63887,7 @@
         <v>7943</v>
       </c>
       <c r="B7943">
-        <v>21.40086784195969</v>
+        <v>21.40086784195968</v>
       </c>
     </row>
     <row r="7944" spans="1:2">
@@ -63911,7 +63911,7 @@
         <v>7946</v>
       </c>
       <c r="B7946">
-        <v>54.83740125704031</v>
+        <v>54.8374012570403</v>
       </c>
     </row>
     <row r="7947" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>59.66750504521794</v>
+        <v>59.66750504521793</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -64063,7 +64063,7 @@
         <v>7965</v>
       </c>
       <c r="B7965">
-        <v>10.80626187304046</v>
+        <v>10.80626187304045</v>
       </c>
     </row>
     <row r="7966" spans="1:2">
@@ -64143,7 +64143,7 @@
         <v>7975</v>
       </c>
       <c r="B7975">
-        <v>73.78239240922565</v>
+        <v>73.78239240922564</v>
       </c>
     </row>
     <row r="7976" spans="1:2">
@@ -64287,7 +64287,7 @@
         <v>7993</v>
       </c>
       <c r="B7993">
-        <v>58.39850744781431</v>
+        <v>58.3985074478143</v>
       </c>
     </row>
     <row r="7994" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>37.30413329808666</v>
+        <v>37.30413329808665</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64511,7 +64511,7 @@
         <v>8021</v>
       </c>
       <c r="B8021">
-        <v>34.91443204884205</v>
+        <v>34.91443204884204</v>
       </c>
     </row>
     <row r="8022" spans="1:2">
@@ -64551,7 +64551,7 @@
         <v>8026</v>
       </c>
       <c r="B8026">
-        <v>0.8033604697577065</v>
+        <v>0.8033604697577064</v>
       </c>
     </row>
     <row r="8027" spans="1:2">
@@ -64655,7 +64655,7 @@
         <v>8039</v>
       </c>
       <c r="B8039">
-        <v>6.673344778734298</v>
+        <v>6.673344778734297</v>
       </c>
     </row>
     <row r="8040" spans="1:2">
@@ -64719,7 +64719,7 @@
         <v>8047</v>
       </c>
       <c r="B8047">
-        <v>56.42408786035283</v>
+        <v>56.42408786035282</v>
       </c>
     </row>
     <row r="8048" spans="1:2">
@@ -64815,7 +64815,7 @@
         <v>8059</v>
       </c>
       <c r="B8059">
-        <v>5.840026587404628</v>
+        <v>5.840026587404627</v>
       </c>
     </row>
     <row r="8060" spans="1:2">
@@ -64887,7 +64887,7 @@
         <v>8068</v>
       </c>
       <c r="B8068">
-        <v>37.63032136411674</v>
+        <v>37.63032136411673</v>
       </c>
     </row>
     <row r="8069" spans="1:2">
@@ -64911,7 +64911,7 @@
         <v>8071</v>
       </c>
       <c r="B8071">
-        <v>39.40603878736583</v>
+        <v>39.40603878736582</v>
       </c>
     </row>
     <row r="8072" spans="1:2">
@@ -65087,7 +65087,7 @@
         <v>8093</v>
       </c>
       <c r="B8093">
-        <v>8.071322940252781</v>
+        <v>8.071322940252779</v>
       </c>
     </row>
     <row r="8094" spans="1:2">
@@ -65095,7 +65095,7 @@
         <v>8094</v>
       </c>
       <c r="B8094">
-        <v>6.326671047101792</v>
+        <v>6.326671047101791</v>
       </c>
     </row>
     <row r="8095" spans="1:2">
@@ -65903,7 +65903,7 @@
         <v>8195</v>
       </c>
       <c r="B8195">
-        <v>0.5846825835501571</v>
+        <v>0.584682583550157</v>
       </c>
     </row>
     <row r="8196" spans="1:2">
@@ -65935,7 +65935,7 @@
         <v>8199</v>
       </c>
       <c r="B8199">
-        <v>2.138858816543978</v>
+        <v>2.138858816543977</v>
       </c>
     </row>
     <row r="8200" spans="1:2">
@@ -66087,7 +66087,7 @@
         <v>8218</v>
       </c>
       <c r="B8218">
-        <v>2.696168565083165</v>
+        <v>2.696168565083164</v>
       </c>
     </row>
     <row r="8219" spans="1:2">
@@ -66159,7 +66159,7 @@
         <v>8227</v>
       </c>
       <c r="B8227">
-        <v>30.59163422858721</v>
+        <v>30.5916342285872</v>
       </c>
     </row>
     <row r="8228" spans="1:2">
@@ -66191,7 +66191,7 @@
         <v>8231</v>
       </c>
       <c r="B8231">
-        <v>33.42152817790116</v>
+        <v>33.42152817790115</v>
       </c>
     </row>
     <row r="8232" spans="1:2">
@@ -66215,7 +66215,7 @@
         <v>8234</v>
       </c>
       <c r="B8234">
-        <v>57.31619610203797</v>
+        <v>57.31619610203796</v>
       </c>
     </row>
     <row r="8235" spans="1:2">
@@ -66271,7 +66271,7 @@
         <v>8241</v>
       </c>
       <c r="B8241">
-        <v>7.126901518166595</v>
+        <v>7.126901518166594</v>
       </c>
     </row>
     <row r="8242" spans="1:2">
@@ -66303,7 +66303,7 @@
         <v>8245</v>
       </c>
       <c r="B8245">
-        <v>5.265724580043856</v>
+        <v>5.265724580043855</v>
       </c>
     </row>
     <row r="8246" spans="1:2">
@@ -66423,7 +66423,7 @@
         <v>8260</v>
       </c>
       <c r="B8260">
-        <v>45.4770053532356</v>
+        <v>45.47700535323559</v>
       </c>
     </row>
     <row r="8261" spans="1:2">
@@ -66567,7 +66567,7 @@
         <v>8278</v>
       </c>
       <c r="B8278">
-        <v>21.33809202547843</v>
+        <v>21.33809202547842</v>
       </c>
     </row>
     <row r="8279" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>31.63731169453089</v>
+        <v>31.63731169453088</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66591,7 +66591,7 @@
         <v>8281</v>
       </c>
       <c r="B8281">
-        <v>60.36794482761855</v>
+        <v>60.36794482761854</v>
       </c>
     </row>
     <row r="8282" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>13.40990498050785</v>
+        <v>13.40990498050784</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>51.37242236694722</v>
+        <v>51.37242236694721</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66759,7 +66759,7 @@
         <v>8302</v>
       </c>
       <c r="B8302">
-        <v>33.76793814559887</v>
+        <v>33.76793814559886</v>
       </c>
     </row>
     <row r="8303" spans="1:2">
@@ -66767,7 +66767,7 @@
         <v>8303</v>
       </c>
       <c r="B8303">
-        <v>37.85422763765401</v>
+        <v>37.854227637654</v>
       </c>
     </row>
     <row r="8304" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>19.27657172532679</v>
+        <v>19.27657172532678</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66903,7 +66903,7 @@
         <v>8320</v>
       </c>
       <c r="B8320">
-        <v>28.91236648416157</v>
+        <v>28.91236648416156</v>
       </c>
     </row>
     <row r="8321" spans="1:2">
@@ -66967,7 +66967,7 @@
         <v>8328</v>
       </c>
       <c r="B8328">
-        <v>55.45636729069307</v>
+        <v>55.45636729069306</v>
       </c>
     </row>
     <row r="8329" spans="1:2">
@@ -67071,7 +67071,7 @@
         <v>8341</v>
       </c>
       <c r="B8341">
-        <v>5.699674866989709</v>
+        <v>5.699674866989708</v>
       </c>
     </row>
     <row r="8342" spans="1:2">
@@ -67111,7 +67111,7 @@
         <v>8346</v>
       </c>
       <c r="B8346">
-        <v>6.777824604017067</v>
+        <v>6.777824604017066</v>
       </c>
     </row>
     <row r="8347" spans="1:2">
@@ -67135,7 +67135,7 @@
         <v>8349</v>
       </c>
       <c r="B8349">
-        <v>43.88240583187922</v>
+        <v>43.88240583187921</v>
       </c>
     </row>
     <row r="8350" spans="1:2">
@@ -67159,7 +67159,7 @@
         <v>8352</v>
       </c>
       <c r="B8352">
-        <v>70.21835550806503</v>
+        <v>70.21835550806502</v>
       </c>
     </row>
     <row r="8353" spans="1:2">
@@ -67255,7 +67255,7 @@
         <v>8364</v>
       </c>
       <c r="B8364">
-        <v>9.754547143700352</v>
+        <v>9.75454714370035</v>
       </c>
     </row>
     <row r="8365" spans="1:2">
@@ -67311,7 +67311,7 @@
         <v>8371</v>
       </c>
       <c r="B8371">
-        <v>47.00830153024113</v>
+        <v>47.00830153024112</v>
       </c>
     </row>
     <row r="8372" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>53.06666604144846</v>
+        <v>53.06666604144845</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67447,7 +67447,7 @@
         <v>8388</v>
       </c>
       <c r="B8388">
-        <v>7.285804635328777</v>
+        <v>7.285804635328776</v>
       </c>
     </row>
     <row r="8389" spans="1:2">
@@ -67487,7 +67487,7 @@
         <v>8393</v>
       </c>
       <c r="B8393">
-        <v>3.217773468982241</v>
+        <v>3.21777346898224</v>
       </c>
     </row>
     <row r="8394" spans="1:2">
@@ -67503,7 +67503,7 @@
         <v>8395</v>
       </c>
       <c r="B8395">
-        <v>54.02940440345098</v>
+        <v>54.02940440345097</v>
       </c>
     </row>
     <row r="8396" spans="1:2">
@@ -67511,7 +67511,7 @@
         <v>8396</v>
       </c>
       <c r="B8396">
-        <v>44.51162935188513</v>
+        <v>44.51162935188512</v>
       </c>
     </row>
     <row r="8397" spans="1:2">
@@ -67519,7 +67519,7 @@
         <v>8397</v>
       </c>
       <c r="B8397">
-        <v>36.90672896966188</v>
+        <v>36.90672896966187</v>
       </c>
     </row>
     <row r="8398" spans="1:2">
@@ -67535,7 +67535,7 @@
         <v>8399</v>
       </c>
       <c r="B8399">
-        <v>43.2684220058837</v>
+        <v>43.26842200588369</v>
       </c>
     </row>
     <row r="8400" spans="1:2">
@@ -67687,7 +67687,7 @@
         <v>8418</v>
       </c>
       <c r="B8418">
-        <v>7.858787823015571</v>
+        <v>7.858787823015572</v>
       </c>
     </row>
     <row r="8419" spans="1:2">
@@ -67743,7 +67743,7 @@
         <v>8425</v>
       </c>
       <c r="B8425">
-        <v>66.76363410432509</v>
+        <v>66.76363410432508</v>
       </c>
     </row>
     <row r="8426" spans="1:2">
@@ -67807,7 +67807,7 @@
         <v>8433</v>
       </c>
       <c r="B8433">
-        <v>7.815384002189828</v>
+        <v>7.815384002189827</v>
       </c>
     </row>
     <row r="8434" spans="1:2">
@@ -67815,7 +67815,7 @@
         <v>8434</v>
       </c>
       <c r="B8434">
-        <v>10.21510828095666</v>
+        <v>10.21510828095665</v>
       </c>
     </row>
     <row r="8435" spans="1:2">
@@ -67855,7 +67855,7 @@
         <v>8439</v>
       </c>
       <c r="B8439">
-        <v>4.206009011348297</v>
+        <v>4.206009011348296</v>
       </c>
     </row>
     <row r="8440" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>73.5022164962654</v>
+        <v>73.50221649626539</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>69.94081723445274</v>
+        <v>69.94081723445272</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>67.06432498999163</v>
+        <v>67.06432498999162</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68087,7 +68087,7 @@
         <v>8468</v>
       </c>
       <c r="B8468">
-        <v>21.439113612505</v>
+        <v>21.43911361250499</v>
       </c>
     </row>
     <row r="8469" spans="1:2">
@@ -68127,7 +68127,7 @@
         <v>8473</v>
       </c>
       <c r="B8473">
-        <v>33.82655235333114</v>
+        <v>33.82655235333113</v>
       </c>
     </row>
     <row r="8474" spans="1:2">
@@ -68151,7 +68151,7 @@
         <v>8476</v>
       </c>
       <c r="B8476">
-        <v>41.42119524920124</v>
+        <v>41.42119524920123</v>
       </c>
     </row>
     <row r="8477" spans="1:2">
@@ -68159,7 +68159,7 @@
         <v>8477</v>
       </c>
       <c r="B8477">
-        <v>45.88232259970424</v>
+        <v>45.88232259970423</v>
       </c>
     </row>
     <row r="8478" spans="1:2">
@@ -68167,7 +68167,7 @@
         <v>8478</v>
       </c>
       <c r="B8478">
-        <v>47.23719001143564</v>
+        <v>47.23719001143563</v>
       </c>
     </row>
     <row r="8479" spans="1:2">
@@ -68359,7 +68359,7 @@
         <v>8502</v>
       </c>
       <c r="B8502">
-        <v>39.176564164094</v>
+        <v>39.17656416409399</v>
       </c>
     </row>
     <row r="8503" spans="1:2">
@@ -68599,7 +68599,7 @@
         <v>8532</v>
       </c>
       <c r="B8532">
-        <v>2.18335579234393</v>
+        <v>2.183355792343929</v>
       </c>
     </row>
     <row r="8533" spans="1:2">
@@ -68615,7 +68615,7 @@
         <v>8534</v>
       </c>
       <c r="B8534">
-        <v>3.264166614402332</v>
+        <v>3.264166614402331</v>
       </c>
     </row>
     <row r="8535" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>89.60676314174499</v>
+        <v>89.60676314174498</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68679,7 +68679,7 @@
         <v>8542</v>
       </c>
       <c r="B8542">
-        <v>67.69882378869345</v>
+        <v>67.69882378869343</v>
       </c>
     </row>
     <row r="8543" spans="1:2">
@@ -68895,7 +68895,7 @@
         <v>8569</v>
       </c>
       <c r="B8569">
-        <v>122.9910712977362</v>
+        <v>122.9910712977361</v>
       </c>
     </row>
     <row r="8570" spans="1:2">
@@ -68967,7 +68967,7 @@
         <v>8578</v>
       </c>
       <c r="B8578">
-        <v>59.16547435599105</v>
+        <v>59.16547435599104</v>
       </c>
     </row>
     <row r="8579" spans="1:2">
@@ -68999,7 +68999,7 @@
         <v>8582</v>
       </c>
       <c r="B8582">
-        <v>62.86227243766526</v>
+        <v>62.86227243766525</v>
       </c>
     </row>
     <row r="8583" spans="1:2">
@@ -69183,7 +69183,7 @@
         <v>8605</v>
       </c>
       <c r="B8605">
-        <v>19.01008222987203</v>
+        <v>19.01008222987202</v>
       </c>
     </row>
     <row r="8606" spans="1:2">
@@ -69359,7 +69359,7 @@
         <v>8627</v>
       </c>
       <c r="B8627">
-        <v>50.71242638788187</v>
+        <v>50.71242638788186</v>
       </c>
     </row>
     <row r="8628" spans="1:2">
@@ -69423,7 +69423,7 @@
         <v>8635</v>
       </c>
       <c r="B8635">
-        <v>144.223774977712</v>
+        <v>144.2237749777119</v>
       </c>
     </row>
     <row r="8636" spans="1:2">
@@ -69447,7 +69447,7 @@
         <v>8638</v>
       </c>
       <c r="B8638">
-        <v>87.04297769553554</v>
+        <v>87.04297769553553</v>
       </c>
     </row>
     <row r="8639" spans="1:2">
@@ -69775,7 +69775,7 @@
         <v>8679</v>
       </c>
       <c r="B8679">
-        <v>32.34126832939544</v>
+        <v>32.34126832939543</v>
       </c>
     </row>
     <row r="8680" spans="1:2">
@@ -69807,7 +69807,7 @@
         <v>8683</v>
       </c>
       <c r="B8683">
-        <v>109.3840760437286</v>
+        <v>109.3840760437285</v>
       </c>
     </row>
     <row r="8684" spans="1:2">
@@ -69879,7 +69879,7 @@
         <v>8692</v>
       </c>
       <c r="B8692">
-        <v>84.93872763794708</v>
+        <v>84.93872763794707</v>
       </c>
     </row>
     <row r="8693" spans="1:2">
@@ -69959,7 +69959,7 @@
         <v>8702</v>
       </c>
       <c r="B8702">
-        <v>35.77283712108113</v>
+        <v>35.77283712108112</v>
       </c>
     </row>
     <row r="8703" spans="1:2">
@@ -70031,7 +70031,7 @@
         <v>8711</v>
       </c>
       <c r="B8711">
-        <v>68.62141141839936</v>
+        <v>68.62141141839935</v>
       </c>
     </row>
     <row r="8712" spans="1:2">
@@ -70143,7 +70143,7 @@
         <v>8725</v>
       </c>
       <c r="B8725">
-        <v>26.6895691914346</v>
+        <v>26.68956919143459</v>
       </c>
     </row>
     <row r="8726" spans="1:2">
@@ -70151,7 +70151,7 @@
         <v>8726</v>
       </c>
       <c r="B8726">
-        <v>28.51308650108935</v>
+        <v>28.51308650108934</v>
       </c>
     </row>
     <row r="8727" spans="1:2">
@@ -70295,7 +70295,7 @@
         <v>8744</v>
       </c>
       <c r="B8744">
-        <v>30.76366692828142</v>
+        <v>30.76366692828141</v>
       </c>
     </row>
     <row r="8745" spans="1:2">
@@ -70351,7 +70351,7 @@
         <v>8751</v>
       </c>
       <c r="B8751">
-        <v>77.08940600948027</v>
+        <v>77.08940600948026</v>
       </c>
     </row>
     <row r="8752" spans="1:2">
